--- a/local/public/excel_files/giftvoucher_cus.xlsx
+++ b/local/public/excel_files/giftvoucher_cus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -38,31 +38,16 @@
     <t>CREATED_AT</t>
   </si>
   <si>
-    <t>cccccccccccccccc</t>
-  </si>
-  <si>
-    <t>A00019</t>
-  </si>
-  <si>
-    <t>รออนุมัติ</t>
-  </si>
-  <si>
-    <t>2021-03-12 15:06:29</t>
-  </si>
-  <si>
-    <t>A00020</t>
-  </si>
-  <si>
-    <t>A00021</t>
-  </si>
-  <si>
-    <t>A00022</t>
-  </si>
-  <si>
-    <t>A00023</t>
-  </si>
-  <si>
-    <t>2021-03-12 15:06:41</t>
+    <t>Add test</t>
+  </si>
+  <si>
+    <t>A0000008</t>
+  </si>
+  <si>
+    <t>ใช้งานได้</t>
+  </si>
+  <si>
+    <t>2021-04-07 11:25:41</t>
   </si>
 </sst>
 </file>
@@ -401,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +419,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -446,220 +431,13 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1200</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>900</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>1100</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>28</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>1200</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>1300</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
